--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1859440.7885715</v>
+        <v>1855182.526345025</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>97.2050380474943</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861689</v>
+        <v>400.623549491302</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.958190538687</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241024569</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>74.10571100660279</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>118.0444283616368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>45.86228098101138</v>
       </c>
       <c r="C5" t="n">
-        <v>297.6505619910591</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>412.9288914861689</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716172</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>118.958190538687</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241024569</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011784</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063312</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6369540390099</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>197.5339758908239</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>362.1906949613166</v>
+        <v>1.909437943538761</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>8.375261881112111</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>92.8067126670469</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>146.9393756113377</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>240.06330988836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>41.16673120696272</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272917</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>73.57849775387133</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>20.43112068613158</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>146.5235739004488</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>68.64373283592688</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>220.864501724972</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922723</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000749</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>235.8244881232821</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>122.8327676896534</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.6789846282036</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.2221689967083</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1484.938830914003</v>
+        <v>1715.762248365586</v>
       </c>
       <c r="C2" t="n">
-        <v>1484.938830914003</v>
+        <v>1346.799731425174</v>
       </c>
       <c r="D2" t="n">
-        <v>1386.751923795322</v>
+        <v>988.5340328184238</v>
       </c>
       <c r="E2" t="n">
-        <v>1000.963671197077</v>
+        <v>988.5340328184238</v>
       </c>
       <c r="F2" t="n">
-        <v>589.97776640747</v>
+        <v>577.5481280288163</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174004</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174004</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002398</v>
+        <v>240.3507333903776</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745297</v>
+        <v>642.3082349403372</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031089</v>
+        <v>1042.407704672376</v>
       </c>
       <c r="M2" t="n">
-        <v>1334.573032084385</v>
+        <v>1227.023259395749</v>
       </c>
       <c r="N2" t="n">
-        <v>1959.763123039498</v>
+        <v>1419.239895182999</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.17409378057</v>
+        <v>1964.401531937495</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992999</v>
+        <v>2392.009993239692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4360,22 +4360,22 @@
         <v>2635.143761215016</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.143761215016</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="U2" t="n">
-        <v>2635.143761215016</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="V2" t="n">
-        <v>2635.143761215016</v>
+        <v>2089.228006626666</v>
       </c>
       <c r="W2" t="n">
-        <v>2635.143761215016</v>
+        <v>2089.228006626666</v>
       </c>
       <c r="X2" t="n">
-        <v>2261.678002953936</v>
+        <v>1715.762248365586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1871.538670978125</v>
+        <v>1715.762248365586</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815741</v>
+        <v>98.84600463815747</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448422</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320004</v>
+        <v>499.1804835727247</v>
       </c>
       <c r="L3" t="n">
-        <v>884.1039790291106</v>
+        <v>1002.163317769836</v>
       </c>
       <c r="M3" t="n">
-        <v>1523.040444009828</v>
+        <v>1238.315708304459</v>
       </c>
       <c r="N3" t="n">
-        <v>1958.575638897798</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O3" t="n">
-        <v>2506.500878103472</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877467</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>526.0738441232016</v>
+        <v>866.1032195916201</v>
       </c>
       <c r="C4" t="n">
-        <v>357.1376611952948</v>
+        <v>697.1670366637132</v>
       </c>
       <c r="D4" t="n">
-        <v>207.021021782959</v>
+        <v>547.0503972513775</v>
       </c>
       <c r="E4" t="n">
-        <v>207.021021782959</v>
+        <v>399.1373036689844</v>
       </c>
       <c r="F4" t="n">
-        <v>207.021021782959</v>
+        <v>252.247356171074</v>
       </c>
       <c r="G4" t="n">
-        <v>207.021021782959</v>
+        <v>252.247356171074</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448422</v>
+        <v>177.393102629051</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543747</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="W4" t="n">
-        <v>928.5148880969715</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="X4" t="n">
-        <v>928.5148880969715</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="Y4" t="n">
-        <v>707.7223089534414</v>
+        <v>1047.75168442186</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1619.967927219983</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.310793895681</v>
+        <v>2063.364745100675</v>
       </c>
       <c r="D5" t="n">
-        <v>1319.310793895681</v>
+        <v>1705.099046493925</v>
       </c>
       <c r="E5" t="n">
-        <v>1319.310793895681</v>
+        <v>1319.31079389568</v>
       </c>
       <c r="F5" t="n">
-        <v>908.3248891060732</v>
+        <v>908.324889106073</v>
       </c>
       <c r="G5" t="n">
-        <v>491.2249987160036</v>
+        <v>491.2249987160033</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174004</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002398</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K5" t="n">
-        <v>474.9025859199828</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L5" t="n">
-        <v>1025.843037648562</v>
+        <v>704.9390792031114</v>
       </c>
       <c r="M5" t="n">
-        <v>1655.476990529838</v>
+        <v>1334.573032084389</v>
       </c>
       <c r="N5" t="n">
-        <v>2280.667081484951</v>
+        <v>1959.763123039503</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.17409378057</v>
+        <v>2493.174093780568</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992999</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
@@ -4597,22 +4597,22 @@
         <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140763</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.107259195795</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="V5" t="n">
-        <v>2010.107259195795</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="W5" t="n">
-        <v>2010.107259195795</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="X5" t="n">
-        <v>2010.107259195795</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="Y5" t="n">
-        <v>1619.967927219983</v>
+        <v>2478.652798385543</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120983</v>
+        <v>966.4318812120973</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309714</v>
+        <v>791.9788519309703</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697201</v>
+        <v>643.0444422697192</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642646</v>
+        <v>483.8069872642636</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911496</v>
+        <v>337.2724292911487</v>
       </c>
       <c r="G6" t="n">
-        <v>199.824552964034</v>
+        <v>199.8245529640335</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815764</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448422</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448320004</v>
+        <v>499.1804835727247</v>
       </c>
       <c r="L6" t="n">
-        <v>884.1039790291106</v>
+        <v>1002.163317769836</v>
       </c>
       <c r="M6" t="n">
-        <v>1061.992430897328</v>
+        <v>1238.315708304459</v>
       </c>
       <c r="N6" t="n">
-        <v>1435.32098308577</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291443</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P6" t="n">
         <v>2406.001465018976</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4676,22 +4676,22 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U6" t="n">
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997119</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232165</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.97668332239647</v>
+        <v>666.5739510150303</v>
       </c>
       <c r="C7" t="n">
-        <v>70.97668332239647</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D7" t="n">
-        <v>70.97668332239647</v>
+        <v>347.5211286747877</v>
       </c>
       <c r="E7" t="n">
-        <v>70.97668332239647</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F7" t="n">
-        <v>70.97668332239647</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G7" t="n">
-        <v>70.97668332239647</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
-        <v>70.97668332239647</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239647</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543747</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U7" t="n">
-        <v>843.0678924632613</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="V7" t="n">
-        <v>588.3834042573744</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="W7" t="n">
-        <v>298.9662342204138</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="X7" t="n">
-        <v>70.97668332239647</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="Y7" t="n">
-        <v>70.97668332239647</v>
+        <v>848.22241584527</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1933.826593145179</v>
+        <v>801.8679068095121</v>
       </c>
       <c r="C8" t="n">
-        <v>1564.864076204768</v>
+        <v>432.9053898691004</v>
       </c>
       <c r="D8" t="n">
-        <v>1564.864076204768</v>
+        <v>74.63969126234986</v>
       </c>
       <c r="E8" t="n">
-        <v>1199.014889375155</v>
+        <v>72.71096606685616</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0289845855473</v>
+        <v>65.76546531765268</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9412028219747</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082206</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
         <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1197.638357874465</v>
+        <v>1033.218542125548</v>
       </c>
       <c r="M8" t="n">
-        <v>1384.337770699873</v>
+        <v>1219.917954950955</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.444008596244</v>
+        <v>1414.252167842938</v>
       </c>
       <c r="O8" t="n">
-        <v>2171.605213363321</v>
+        <v>1961.413372610015</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702616</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.689342221039</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.88948048875</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="U8" t="n">
-        <v>2264.88948048875</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="V8" t="n">
-        <v>1933.826593145179</v>
+        <v>2304.841492380639</v>
       </c>
       <c r="W8" t="n">
-        <v>1933.826593145179</v>
+        <v>1952.072837110525</v>
       </c>
       <c r="X8" t="n">
-        <v>1933.826593145179</v>
+        <v>1578.607078849446</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.826593145179</v>
+        <v>1188.467746873634</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416773</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>52.71808759448422</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3259072578413</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6874471239598</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1265.232796591064</v>
+        <v>1184.664619977913</v>
       </c>
       <c r="N9" t="n">
-        <v>1917.619130572807</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.3584353527</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.326203833537</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.7093147661826</v>
+        <v>500.0912503250095</v>
       </c>
       <c r="C10" t="n">
-        <v>220.7093147661826</v>
+        <v>500.0912503250095</v>
       </c>
       <c r="D10" t="n">
-        <v>70.59267535384683</v>
+        <v>500.0912503250095</v>
       </c>
       <c r="E10" t="n">
-        <v>70.59267535384683</v>
+        <v>500.0912503250095</v>
       </c>
       <c r="F10" t="n">
-        <v>70.59267535384683</v>
+        <v>500.0912503250095</v>
       </c>
       <c r="G10" t="n">
-        <v>70.59267535384683</v>
+        <v>331.4844053203929</v>
       </c>
       <c r="H10" t="n">
-        <v>70.59267535384683</v>
+        <v>177.2297622201579</v>
       </c>
       <c r="I10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4986,28 +4986,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.652769053829</v>
+        <v>1044.192908567857</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>1044.192908567857</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>1044.192908567857</v>
       </c>
       <c r="U10" t="n">
-        <v>958.9086148446906</v>
+        <v>1044.192908567857</v>
       </c>
       <c r="V10" t="n">
-        <v>958.9086148446906</v>
+        <v>789.5084203619701</v>
       </c>
       <c r="W10" t="n">
-        <v>669.49144480773</v>
+        <v>500.0912503250095</v>
       </c>
       <c r="X10" t="n">
-        <v>441.5018939097126</v>
+        <v>500.0912503250095</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.7093147661826</v>
+        <v>500.0912503250095</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5357,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459548</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180479</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>449.4852666057121</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>449.4852666057121</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>302.5953191078017</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>135.3992198226817</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>135.3992198226817</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510505</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854703</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854703</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817742</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919725</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761945</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277355</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277355</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5898,13 +5898,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6077,16 +6077,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2505.71655096576</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2357.803457383367</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6317,13 +6317,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,10 +7028,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.66716026353</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="C37" t="n">
-        <v>929.730977335623</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232873</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408942</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429838</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172278</v>
+        <v>1450.179300194825</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135317</v>
+        <v>1160.762130157864</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.1082042373</v>
+        <v>932.7725792598471</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.31562509377</v>
+        <v>711.980000116317</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>866.4638174991043</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5276345711974</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>1087.256396642634</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>866.4638174991043</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7390,25 +7390,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,40 +7420,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5348780504994</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5348780504994</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>265.2965862711155</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>368.9308216532274</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546833</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>58.85246329939895</v>
       </c>
       <c r="N3" t="n">
-        <v>240.9393132390535</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>44.78540908206276</v>
+        <v>368.930821653219</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546833</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>58.85246329939895</v>
       </c>
       <c r="N6" t="n">
-        <v>178.1043206132669</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8458,13 +8458,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>251.5805925818469</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>46.23436869130131</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243206</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
-        <v>112.3504970819521</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>32.89260457059956</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.09910511160282</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>212.9445005827197</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>124.9899273367997</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>139.9994244361422</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>118.3918499711702</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>217.5407415533173</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>4.845153664065123</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891692</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>16.31315520054591</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>102.8768876993838</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.36248435538653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>936413.6847924653</v>
+        <v>936413.6847924651</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>936413.6847924653</v>
+        <v>936413.6847924651</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873172.0903518676</v>
+        <v>873172.0903518677</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>873172.0903518676</v>
+        <v>873172.0903518677</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>873172.0903518676</v>
+        <v>873172.0903518677</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907537</v>
-      </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222398</v>
+        <v>789845.9331222414</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.74144847562</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329922</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>2.370099883548738e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663866</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408961</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408961</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
@@ -26429,10 +26429,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695004</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
@@ -26441,22 +26441,22 @@
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695004</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695077</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917782</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-506645.1991301288</v>
+        <v>-506645.1991301306</v>
       </c>
       <c r="C6" t="n">
         <v>283200.7339921108</v>
       </c>
       <c r="D6" t="n">
-        <v>281085.7421847355</v>
+        <v>281085.7421847371</v>
       </c>
       <c r="E6" t="n">
-        <v>-338210.3277978405</v>
+        <v>-338557.7070521974</v>
       </c>
       <c r="F6" t="n">
-        <v>437413.9444351517</v>
+        <v>437066.5651807952</v>
       </c>
       <c r="G6" t="n">
-        <v>437413.9444351516</v>
+        <v>437066.5651807944</v>
       </c>
       <c r="H6" t="n">
-        <v>437413.9444351517</v>
+        <v>437066.5651807946</v>
       </c>
       <c r="I6" t="n">
-        <v>437413.9444351517</v>
+        <v>437066.5651807947</v>
       </c>
       <c r="J6" t="n">
-        <v>264996.8030530115</v>
+        <v>264649.4237986542</v>
       </c>
       <c r="K6" t="n">
-        <v>437413.9444351518</v>
+        <v>437066.5651807946</v>
       </c>
       <c r="L6" t="n">
-        <v>437413.9444351515</v>
+        <v>437066.5651807949</v>
       </c>
       <c r="M6" t="n">
-        <v>309389.8269687654</v>
+        <v>309042.4477144083</v>
       </c>
       <c r="N6" t="n">
-        <v>437413.9444351518</v>
+        <v>437066.5651807947</v>
       </c>
       <c r="O6" t="n">
-        <v>437413.9444351517</v>
+        <v>437066.5651807946</v>
       </c>
       <c r="P6" t="n">
-        <v>437413.9444351521</v>
+        <v>437066.5651807946</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632726251</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685952</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>257.4780035731886</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.30534199486686</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716172</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011784</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>78.65419383998723</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842212</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063312</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371268</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
         <v>205.4595917937733</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>168.4785699749542</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>336.8715606824692</v>
       </c>
       <c r="C5" t="n">
-        <v>67.62232977994847</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9261537524327</v>
@@ -27794,10 +27794,10 @@
         <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842212</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371268</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
         <v>205.4595917937733</v>
@@ -27830,19 +27830,19 @@
         <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>83.62399392078868</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>21.05067746127085</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>19.73967511094514</v>
+        <v>380.020932128723</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>120.7979197866792</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28067,19 +28067,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>193.4539419910501</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28538,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-3.460345829981158e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009689</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337088</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N2" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728738</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170472</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387883</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I3" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O3" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190961</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445341</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849537</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303707</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177231</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R4" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009689</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337088</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728738</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170472</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387883</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190961</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445341</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849537</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303707</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177231</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>437.8531046913764</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428259</v>
+        <v>189.5279250463569</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212697</v>
+        <v>406.0176783332926</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965446</v>
+        <v>404.1408785172109</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992686</v>
+        <v>186.4803583064373</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789023</v>
+        <v>194.1582179669193</v>
       </c>
       <c r="O2" t="n">
-        <v>538.7989603445172</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176042</v>
+        <v>431.9277386890878</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607272</v>
+        <v>246.3579661459781</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358749</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859699</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673912</v>
+        <v>238.5377682167912</v>
       </c>
       <c r="N3" t="n">
-        <v>439.9345402908795</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581488</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>108.5627290646419</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307455</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287766</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N4" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973496</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428259</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332917</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965446</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992686</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789023</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>214.6535477733525</v>
+        <v>538.79896034451</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176042</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607272</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358749</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859699</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>179.6853049173913</v>
+        <v>238.5377682167912</v>
       </c>
       <c r="N6" t="n">
-        <v>377.0995476650929</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581488</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>427.025497704579</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689237</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287766</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973496</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,13 +35178,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>392.3166085831128</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>242.5315534306774</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35193,7 +35193,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310527</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
-        <v>273.4740452322154</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35652,7 +35652,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,16 +35734,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8786972770462</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1855182.526345025</v>
+        <v>1856943.056647809</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554859</v>
+        <v>10955577.07554858</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>400.623549491302</v>
+        <v>85.45989801968422</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386867</v>
+        <v>118.9581905386872</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123241028832</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261766</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199448</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156105</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H4" t="n">
-        <v>74.10571100660279</v>
+        <v>152.7599048465901</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842211</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371269</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>20.73135153273052</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.86228098101138</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>412.9288914861689</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386867</v>
+        <v>118.9581905386872</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123241028832</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011782</v>
+        <v>154.9260532011785</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>125.9021102807035</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261766</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199448</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156105</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>197.5339758908239</v>
+        <v>197.5339758908185</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>47.48536395958274</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>1.909437943538761</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>8.375261881112111</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>10.80420929661944</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>146.9393756113377</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>73.57849775387133</v>
+        <v>188.4343500806758</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>146.5235739004488</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>40.1538165833283</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>152.6628237007935</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>220.864501724972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>235.8244881232821</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>14.75529838241474</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>160.6789846282036</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4321,37 +4321,37 @@
         <v>577.5481280288163</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174001</v>
+        <v>491.224998716004</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174001</v>
+        <v>172.8778760174006</v>
       </c>
       <c r="I2" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>240.3507333903776</v>
+        <v>240.3507333903765</v>
       </c>
       <c r="K2" t="n">
-        <v>642.3082349403372</v>
+        <v>321.4042764948814</v>
       </c>
       <c r="L2" t="n">
-        <v>1042.407704672376</v>
+        <v>872.3447282234596</v>
       </c>
       <c r="M2" t="n">
-        <v>1227.023259395749</v>
+        <v>1501.978681104734</v>
       </c>
       <c r="N2" t="n">
-        <v>1419.239895182999</v>
+        <v>1694.195316891982</v>
       </c>
       <c r="O2" t="n">
-        <v>1964.401531937495</v>
+        <v>1964.401531937499</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239692</v>
+        <v>2392.009993239694</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120982</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309712</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642645</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640341</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815747</v>
+        <v>98.84600463815775</v>
       </c>
       <c r="I3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>170.7774263352079</v>
+        <v>170.7774263352073</v>
       </c>
       <c r="K3" t="n">
-        <v>499.1804835727247</v>
+        <v>499.1804835727229</v>
       </c>
       <c r="L3" t="n">
-        <v>1002.163317769836</v>
+        <v>635.0313759194078</v>
       </c>
       <c r="M3" t="n">
-        <v>1238.315708304459</v>
+        <v>1273.967840900124</v>
       </c>
       <c r="N3" t="n">
-        <v>1435.320983085768</v>
+        <v>1470.973115681431</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.246222291442</v>
+        <v>1983.246222291445</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018976</v>
+        <v>2406.001465018977</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4445,7 +4445,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W3" t="n">
         <v>1550.259017202653</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>866.1032195916201</v>
+        <v>670.4363393808713</v>
       </c>
       <c r="C4" t="n">
-        <v>697.1670366637132</v>
+        <v>670.4363393808713</v>
       </c>
       <c r="D4" t="n">
-        <v>547.0503972513775</v>
+        <v>670.4363393808713</v>
       </c>
       <c r="E4" t="n">
-        <v>399.1373036689844</v>
+        <v>522.5232457984782</v>
       </c>
       <c r="F4" t="n">
-        <v>252.247356171074</v>
+        <v>375.6332983005679</v>
       </c>
       <c r="G4" t="n">
-        <v>252.247356171074</v>
+        <v>207.0210217829591</v>
       </c>
       <c r="H4" t="n">
-        <v>177.393102629051</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919727</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482312</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628155</v>
+        <v>541.624208062813</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543764</v>
+        <v>746.632943554373</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917094</v>
+        <v>919.975396891705</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327081</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442186</v>
+        <v>917.0295025661707</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442186</v>
+        <v>896.0887434422004</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.75168442186</v>
+        <v>670.4363393808713</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.75168442186</v>
+        <v>670.4363393808713</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.75168442186</v>
+        <v>670.4363393808713</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.75168442186</v>
+        <v>670.4363393808713</v>
       </c>
       <c r="X4" t="n">
-        <v>1047.75168442186</v>
+        <v>670.4363393808713</v>
       </c>
       <c r="Y4" t="n">
-        <v>1047.75168442186</v>
+        <v>670.4363393808713</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2432.327262041087</v>
+        <v>1745.017622402072</v>
       </c>
       <c r="C5" t="n">
-        <v>2063.364745100675</v>
+        <v>1745.017622402072</v>
       </c>
       <c r="D5" t="n">
-        <v>1705.099046493925</v>
+        <v>1386.751923795322</v>
       </c>
       <c r="E5" t="n">
-        <v>1319.31079389568</v>
+        <v>1000.963671197078</v>
       </c>
       <c r="F5" t="n">
-        <v>908.324889106073</v>
+        <v>589.9777664074702</v>
       </c>
       <c r="G5" t="n">
-        <v>491.2249987160033</v>
+        <v>172.8778760174006</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174001</v>
+        <v>172.8778760174006</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002453</v>
+        <v>240.3507333903765</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745311</v>
+        <v>642.3082349403345</v>
       </c>
       <c r="L5" t="n">
-        <v>704.9390792031114</v>
+        <v>1042.407704672387</v>
       </c>
       <c r="M5" t="n">
-        <v>1334.573032084389</v>
+        <v>1227.023259395758</v>
       </c>
       <c r="N5" t="n">
-        <v>1959.763123039503</v>
+        <v>1419.239895183006</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780568</v>
+        <v>1964.401531937499</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992997</v>
+        <v>2392.009993239694</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
@@ -4597,22 +4597,22 @@
         <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.652798385543</v>
+        <v>2351.478949617156</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.652798385543</v>
+        <v>2097.786277672187</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.652798385543</v>
+        <v>2097.786277672187</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.652798385543</v>
+        <v>1745.017622402072</v>
       </c>
       <c r="X5" t="n">
-        <v>2478.652798385543</v>
+        <v>1745.017622402072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2478.652798385543</v>
+        <v>1745.017622402072</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120973</v>
+        <v>966.4318812120986</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309703</v>
+        <v>791.9788519309716</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697192</v>
+        <v>643.0444422697203</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642636</v>
+        <v>483.8069872642648</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911487</v>
+        <v>337.2724292911498</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640335</v>
+        <v>199.8245529640342</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815741</v>
+        <v>98.84600463815775</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352079</v>
+        <v>170.7774263352073</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727247</v>
+        <v>499.1804835727229</v>
       </c>
       <c r="L6" t="n">
-        <v>1002.163317769836</v>
+        <v>635.0313759194078</v>
       </c>
       <c r="M6" t="n">
-        <v>1238.315708304459</v>
+        <v>1273.967840900124</v>
       </c>
       <c r="N6" t="n">
-        <v>1435.320983085768</v>
+        <v>1470.973115681431</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291442</v>
+        <v>2018.898354887104</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018976</v>
+        <v>2406.001465018977</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4676,22 +4676,22 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.407516997119</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232165</v>
+        <v>1134.647218232167</v>
       </c>
     </row>
     <row r="7">
@@ -4713,61 +4713,61 @@
         <v>199.6080350923946</v>
       </c>
       <c r="F7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919727</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482312</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628155</v>
+        <v>541.624208062813</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543764</v>
+        <v>746.632943554373</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917094</v>
+        <v>919.975396891705</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327081</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="X7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="Y7" t="n">
         <v>848.22241584527</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>801.8679068095121</v>
+        <v>2431.724328120451</v>
       </c>
       <c r="C8" t="n">
-        <v>432.9053898691004</v>
+        <v>2062.761811180039</v>
       </c>
       <c r="D8" t="n">
-        <v>74.63969126234986</v>
+        <v>1704.496112573288</v>
       </c>
       <c r="E8" t="n">
-        <v>72.71096606685616</v>
+        <v>1318.707859975044</v>
       </c>
       <c r="F8" t="n">
-        <v>65.76546531765268</v>
+        <v>907.7219551854364</v>
       </c>
       <c r="G8" t="n">
-        <v>52.7180875944842</v>
+        <v>490.6341734218639</v>
       </c>
       <c r="H8" t="n">
-        <v>52.7180875944842</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082205</v>
+        <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
         <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1033.218542125548</v>
+        <v>1033.218542125549</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950955</v>
+        <v>1219.917954950956</v>
       </c>
       <c r="N8" t="n">
         <v>1414.252167842938</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610015</v>
+        <v>1961.413372610016</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949309</v>
+        <v>2390.72841894931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="V8" t="n">
-        <v>2304.841492380639</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.072837110525</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.607078849446</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.467746873634</v>
+        <v>2479.689342221039</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593631</v>
+        <v>199.5389224593632</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416771</v>
+        <v>98.62294460416774</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J9" t="n">
         <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571897</v>
+        <v>500.8057437571898</v>
       </c>
       <c r="L9" t="n">
         <v>1005.167283623308</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.0912503250095</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="C10" t="n">
-        <v>500.0912503250095</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D10" t="n">
-        <v>500.0912503250095</v>
+        <v>347.5211286747877</v>
       </c>
       <c r="E10" t="n">
-        <v>500.0912503250095</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F10" t="n">
-        <v>500.0912503250095</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G10" t="n">
-        <v>331.4844053203929</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H10" t="n">
-        <v>177.2297622201579</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4986,28 +4986,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1044.192908567857</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>1044.192908567857</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>1044.192908567857</v>
+        <v>1041.739426329971</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.192908567857</v>
+        <v>1041.739426329971</v>
       </c>
       <c r="V10" t="n">
-        <v>789.5084203619701</v>
+        <v>787.0549381240839</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0912503250095</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="X10" t="n">
-        <v>500.0912503250095</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.0912503250095</v>
+        <v>497.6377680871234</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5126,7 +5126,7 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
         <v>1520.445529061503</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,13 +5527,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5594,19 +5594,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6083,7 +6083,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6317,10 +6317,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2042.857673062523</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1753.782446406721</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>530.3315352860773</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C37" t="n">
-        <v>530.3315352860773</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
         <v>530.3315352860773</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V37" t="n">
-        <v>1450.179300194825</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W37" t="n">
-        <v>1160.762130157864</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X37" t="n">
-        <v>932.7725792598471</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y37" t="n">
-        <v>711.980000116317</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925216</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="41">
@@ -7390,25 +7390,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,40 +7420,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,22 +7484,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.9745311434712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C43" t="n">
-        <v>701.0383482155643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D43" t="n">
-        <v>550.9217088032285</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E43" t="n">
-        <v>403.0086152208354</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>256.118667722925</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7785,16 +7785,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>365.9405071576781</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>219.0505596597677</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>265.2965862711155</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>103.0674320617588</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8063,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58.85246329939895</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>357.8500641295996</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>265.2965862711314</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>368.930821653219</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8300,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>58.85246329939895</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>282.4505134928071</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>251.5805925818469</v>
+        <v>251.5805925818478</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.89260457059956</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>212.9445005827197</v>
+        <v>98.08864825591516</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>139.9994244361422</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>211.9838267404997</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>64.74262662649477</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>4.845153664065123</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.31315520054591</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>41.54258064659093</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>936413.6847924651</v>
+        <v>936413.6847924655</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>936413.6847924651</v>
+        <v>936413.6847924655</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>936065.5063285009</v>
+        <v>936065.506328501</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>873172.0903518676</v>
+        <v>873172.0903518677</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583907</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="M2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907538</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222414</v>
+        <v>789845.9331222384</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448474159</v>
+        <v>2553.741448476983</v>
       </c>
       <c r="E3" t="n">
         <v>775624.2722329923</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408963</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408963</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
@@ -26432,16 +26432,16 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
@@ -26456,7 +26456,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695077</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538436</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538436</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917783</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-506645.1991301306</v>
+        <v>-506645.1991301278</v>
       </c>
       <c r="C6" t="n">
-        <v>283200.7339921108</v>
+        <v>283200.73399211</v>
       </c>
       <c r="D6" t="n">
-        <v>281085.7421847371</v>
+        <v>281085.7421847341</v>
       </c>
       <c r="E6" t="n">
-        <v>-338557.7070521974</v>
+        <v>-338245.0657232763</v>
       </c>
       <c r="F6" t="n">
-        <v>437066.5651807952</v>
+        <v>437379.2065097161</v>
       </c>
       <c r="G6" t="n">
-        <v>437066.5651807944</v>
+        <v>437379.2065097158</v>
       </c>
       <c r="H6" t="n">
-        <v>437066.5651807946</v>
+        <v>437379.2065097162</v>
       </c>
       <c r="I6" t="n">
-        <v>437066.5651807947</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="J6" t="n">
-        <v>264649.4237986542</v>
+        <v>264962.0651275755</v>
       </c>
       <c r="K6" t="n">
-        <v>437066.5651807946</v>
+        <v>437379.206509716</v>
       </c>
       <c r="L6" t="n">
-        <v>437066.5651807949</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="M6" t="n">
-        <v>309042.4477144083</v>
+        <v>309355.0890433293</v>
       </c>
       <c r="N6" t="n">
-        <v>437066.5651807947</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="O6" t="n">
-        <v>437066.5651807946</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="P6" t="n">
-        <v>437066.5651807946</v>
+        <v>437379.2065097159</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632724546</v>
+        <v>2.981900632727843</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685959</v>
+        <v>513.732193168596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.30534199486686</v>
+        <v>327.4689934664847</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011782</v>
+        <v>154.9260532011785</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>78.65419383998723</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.4282648842213</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063332</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>184.7282402610429</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>336.8715606824692</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>86.80222829162835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>152.7599048465901</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842211</v>
+        <v>123.4282648842213</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063332</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371269</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937734</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207158</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05067746127085</v>
+        <v>21.05067746127625</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>335.2484777038978</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>380.020932128723</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27912,16 +27912,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>120.7979197866792</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>212.5686954241393</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966178</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064414988</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171866</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009683</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071067</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160805</v>
       </c>
       <c r="M2" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337077</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635079</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129754</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728729</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605215</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170468</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506684</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179945</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172942</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366197</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387887</v>
+        <v>12.2666813938788</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817828</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401195</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976547</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623842</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394088</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351584</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492022</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789715</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527190956</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064865</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822737</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445357</v>
+        <v>5.119473297445327</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830248</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026018</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849512</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303698</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034603946</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546591</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177227</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609693</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203279</v>
+        <v>162.947358420327</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953866</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324558</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550592</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004257</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319887</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565711</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232831</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966178</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064414988</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171866</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009683</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071067</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160805</v>
       </c>
       <c r="M5" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337077</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635079</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129754</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728729</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605215</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170468</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506684</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179945</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172942</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366197</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387887</v>
+        <v>12.2666813938788</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817828</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401195</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976547</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623842</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394088</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351584</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492022</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789715</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527190956</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064865</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822737</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445357</v>
+        <v>5.119473297445327</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830248</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026018</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849512</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303698</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034603946</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546591</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177227</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609693</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203279</v>
+        <v>162.947358420327</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953866</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324558</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550592</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004257</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319887</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565711</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232831</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,28 +32077,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,7 +34222,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5279250463569</v>
+        <v>189.5279250463558</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332926</v>
+        <v>81.87226576212618</v>
       </c>
       <c r="L2" t="n">
-        <v>404.1408785172109</v>
+        <v>556.5055067965436</v>
       </c>
       <c r="M2" t="n">
-        <v>186.4803583064373</v>
+        <v>635.9938917992674</v>
       </c>
       <c r="N2" t="n">
-        <v>194.1582179669193</v>
+        <v>194.158217966917</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540363</v>
+        <v>272.9355707530474</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9277386890878</v>
+        <v>431.927738689086</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459781</v>
+        <v>246.3579661459767</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.2518573138624</v>
+        <v>119.2518573138617</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358755</v>
+        <v>331.7202598358743</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859707</v>
+        <v>137.22312358251</v>
       </c>
       <c r="M3" t="n">
-        <v>238.5377682167912</v>
+        <v>645.3903686673904</v>
       </c>
       <c r="N3" t="n">
-        <v>198.995227051827</v>
+        <v>198.9952270518251</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581489</v>
+        <v>517.4475824343573</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045797</v>
+        <v>427.0254977045784</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689241</v>
+        <v>232.2251663689232</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287763</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780389</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228099</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995556</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094263</v>
       </c>
       <c r="P4" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973493</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903811534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428316</v>
+        <v>189.5279250463558</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212782</v>
+        <v>406.0176783332909</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965458</v>
+        <v>404.1408785172246</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992698</v>
+        <v>186.480358306435</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789034</v>
+        <v>194.158217966917</v>
       </c>
       <c r="O5" t="n">
-        <v>538.79896034451</v>
+        <v>550.668319954034</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176052</v>
+        <v>431.927738689086</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607346</v>
+        <v>246.3579661459767</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2518573138624</v>
+        <v>119.2518573138617</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358755</v>
+        <v>331.7202598358743</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859707</v>
+        <v>137.22312358251</v>
       </c>
       <c r="M6" t="n">
-        <v>238.5377682167912</v>
+        <v>645.3903686673904</v>
       </c>
       <c r="N6" t="n">
-        <v>198.995227051827</v>
+        <v>198.9952270518251</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581489</v>
+        <v>553.4598375814872</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045797</v>
+        <v>391.0132425574483</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689241</v>
+        <v>232.2251663689232</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287763</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780389</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228099</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995556</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094263</v>
       </c>
       <c r="P7" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973493</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903811534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>392.3166085831128</v>
+        <v>392.3166085831137</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
